--- a/dashboard/GROUPED.xlsx
+++ b/dashboard/GROUPED.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,10 +1806,10 @@
         <v>40865</v>
       </c>
       <c r="E47" t="n">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="F47" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G47" t="n">
         <v>276.96</v>
@@ -1838,7 +1838,7 @@
         <v>3819</v>
       </c>
       <c r="F48" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G48" t="n">
         <v>294.54</v>
@@ -2038,10 +2038,10 @@
         <v>74672</v>
       </c>
       <c r="E55" t="n">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="F55" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G55" t="n">
         <v>704.11</v>
@@ -2067,7 +2067,7 @@
         <v>82487</v>
       </c>
       <c r="E56" t="n">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="F56" t="n">
         <v>643</v>
@@ -2096,10 +2096,10 @@
         <v>92491</v>
       </c>
       <c r="E57" t="n">
-        <v>7990</v>
+        <v>7988</v>
       </c>
       <c r="F57" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G57" t="n">
         <v>715.3599999999999</v>
@@ -2125,10 +2125,10 @@
         <v>105744</v>
       </c>
       <c r="E58" t="n">
-        <v>8976</v>
+        <v>8973</v>
       </c>
       <c r="F58" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G58" t="n">
         <v>752.8800000000001</v>
@@ -2154,10 +2154,10 @@
         <v>123873</v>
       </c>
       <c r="E59" t="n">
-        <v>10076</v>
+        <v>10072</v>
       </c>
       <c r="F59" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G59" t="n">
         <v>698.7400000000001</v>
@@ -2183,10 +2183,10 @@
         <v>145712</v>
       </c>
       <c r="E60" t="n">
-        <v>11459</v>
+        <v>11451</v>
       </c>
       <c r="F60" t="n">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="G60" t="n">
         <v>724.4300000000001</v>
@@ -2212,10 +2212,10 @@
         <v>164848</v>
       </c>
       <c r="E61" t="n">
-        <v>13107</v>
+        <v>13097</v>
       </c>
       <c r="F61" t="n">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="G61" t="n">
         <v>852.7500000000001</v>
@@ -2241,10 +2241,10 @@
         <v>188877</v>
       </c>
       <c r="E62" t="n">
-        <v>14755</v>
+        <v>14734</v>
       </c>
       <c r="F62" t="n">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="G62" t="n">
         <v>847.1600000000001</v>
@@ -2270,10 +2270,10 @@
         <v>218610</v>
       </c>
       <c r="E63" t="n">
-        <v>16692</v>
+        <v>16664</v>
       </c>
       <c r="F63" t="n">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="G63" t="n">
         <v>814.1400000000002</v>
@@ -2299,10 +2299,10 @@
         <v>245262</v>
       </c>
       <c r="E64" t="n">
-        <v>19185</v>
+        <v>19151</v>
       </c>
       <c r="F64" t="n">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="G64" t="n">
         <v>887.21</v>
@@ -2328,10 +2328,10 @@
         <v>278558</v>
       </c>
       <c r="E65" t="n">
-        <v>21778</v>
+        <v>21736</v>
       </c>
       <c r="F65" t="n">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="G65" t="n">
         <v>897.4199999999998</v>
@@ -2357,10 +2357,10 @@
         <v>318008</v>
       </c>
       <c r="E66" t="n">
-        <v>24744</v>
+        <v>24745</v>
       </c>
       <c r="F66" t="n">
-        <v>2962</v>
+        <v>3005</v>
       </c>
       <c r="G66" t="n">
         <v>853.5799999999999</v>
@@ -2389,7 +2389,7 @@
         <v>28222</v>
       </c>
       <c r="F67" t="n">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="G67" t="n">
         <v>816.75</v>
@@ -2531,10 +2531,10 @@
         <v>583685</v>
       </c>
       <c r="E72" t="n">
-        <v>49429</v>
+        <v>49420</v>
       </c>
       <c r="F72" t="n">
-        <v>5194</v>
+        <v>5185</v>
       </c>
       <c r="G72" t="n">
         <v>619.02</v>
@@ -2560,10 +2560,10 @@
         <v>632097</v>
       </c>
       <c r="E73" t="n">
-        <v>55733</v>
+        <v>55712</v>
       </c>
       <c r="F73" t="n">
-        <v>6302</v>
+        <v>6290</v>
       </c>
       <c r="G73" t="n">
         <v>586.5499999999998</v>
@@ -2589,10 +2589,10 @@
         <v>686618</v>
       </c>
       <c r="E74" t="n">
-        <v>61751</v>
+        <v>61750</v>
       </c>
       <c r="F74" t="n">
-        <v>6012</v>
+        <v>6032</v>
       </c>
       <c r="G74" t="n">
         <v>537.0999999999999</v>
@@ -2618,7 +2618,7 @@
         <v>738116</v>
       </c>
       <c r="E75" t="n">
-        <v>67907</v>
+        <v>67906</v>
       </c>
       <c r="F75" t="n">
         <v>6154</v>
@@ -2647,7 +2647,7 @@
         <v>779558</v>
       </c>
       <c r="E76" t="n">
-        <v>72987</v>
+        <v>72986</v>
       </c>
       <c r="F76" t="n">
         <v>5075</v>
@@ -2676,10 +2676,10 @@
         <v>825790</v>
       </c>
       <c r="E77" t="n">
-        <v>78639</v>
+        <v>78637</v>
       </c>
       <c r="F77" t="n">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="G77" t="n">
         <v>523.4599999999999</v>
@@ -2705,10 +2705,10 @@
         <v>867589</v>
       </c>
       <c r="E78" t="n">
-        <v>86544</v>
+        <v>86541</v>
       </c>
       <c r="F78" t="n">
-        <v>7903</v>
+        <v>7902</v>
       </c>
       <c r="G78" t="n">
         <v>529.0299999999999</v>
@@ -2734,10 +2734,10 @@
         <v>909667</v>
       </c>
       <c r="E79" t="n">
-        <v>93348</v>
+        <v>93343</v>
       </c>
       <c r="F79" t="n">
-        <v>6802</v>
+        <v>6800</v>
       </c>
       <c r="G79" t="n">
         <v>533.3100000000001</v>
@@ -2763,10 +2763,10 @@
         <v>957922</v>
       </c>
       <c r="E80" t="n">
-        <v>101034</v>
+        <v>101032</v>
       </c>
       <c r="F80" t="n">
-        <v>7685</v>
+        <v>7688</v>
       </c>
       <c r="G80" t="n">
         <v>534.53</v>
@@ -2792,10 +2792,10 @@
         <v>1013490</v>
       </c>
       <c r="E81" t="n">
-        <v>108450</v>
+        <v>108445</v>
       </c>
       <c r="F81" t="n">
-        <v>7416</v>
+        <v>7413</v>
       </c>
       <c r="G81" t="n">
         <v>536.6799999999999</v>
@@ -2821,7 +2821,7 @@
         <v>1053726</v>
       </c>
       <c r="E82" t="n">
-        <v>114789</v>
+        <v>114784</v>
       </c>
       <c r="F82" t="n">
         <v>6339</v>
@@ -2850,10 +2850,10 @@
         <v>1093293</v>
       </c>
       <c r="E83" t="n">
-        <v>120471</v>
+        <v>120464</v>
       </c>
       <c r="F83" t="n">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="G83" t="n">
         <v>517.28</v>
@@ -2879,7 +2879,7 @@
         <v>1131558</v>
       </c>
       <c r="E84" t="n">
-        <v>126202</v>
+        <v>126195</v>
       </c>
       <c r="F84" t="n">
         <v>5730</v>
@@ -2908,10 +2908,10 @@
         <v>1157713</v>
       </c>
       <c r="E85" t="n">
-        <v>133654</v>
+        <v>133644</v>
       </c>
       <c r="F85" t="n">
-        <v>7452</v>
+        <v>7449</v>
       </c>
       <c r="G85" t="n">
         <v>417.77</v>
@@ -2937,10 +2937,10 @@
         <v>1193579</v>
       </c>
       <c r="E86" t="n">
-        <v>141854</v>
+        <v>141842</v>
       </c>
       <c r="F86" t="n">
-        <v>8198</v>
+        <v>8196</v>
       </c>
       <c r="G86" t="n">
         <v>422.1</v>
@@ -2966,10 +2966,10 @@
         <v>1225647</v>
       </c>
       <c r="E87" t="n">
-        <v>148899</v>
+        <v>148886</v>
       </c>
       <c r="F87" t="n">
-        <v>7044</v>
+        <v>7043</v>
       </c>
       <c r="G87" t="n">
         <v>403.8600000000001</v>
@@ -2995,7 +2995,7 @@
         <v>1266016</v>
       </c>
       <c r="E88" t="n">
-        <v>157393</v>
+        <v>157380</v>
       </c>
       <c r="F88" t="n">
         <v>8494</v>
@@ -3024,10 +3024,10 @@
         <v>1305583</v>
       </c>
       <c r="E89" t="n">
-        <v>164096</v>
+        <v>164076</v>
       </c>
       <c r="F89" t="n">
-        <v>6703</v>
+        <v>6696</v>
       </c>
       <c r="G89" t="n">
         <v>390.7200000000001</v>
@@ -3053,10 +3053,10 @@
         <v>1338853</v>
       </c>
       <c r="E90" t="n">
-        <v>169090</v>
+        <v>169066</v>
       </c>
       <c r="F90" t="n">
-        <v>4993</v>
+        <v>4989</v>
       </c>
       <c r="G90" t="n">
         <v>380.41</v>
@@ -3082,10 +3082,10 @@
         <v>1382009</v>
       </c>
       <c r="E91" t="n">
-        <v>174670</v>
+        <v>174643</v>
       </c>
       <c r="F91" t="n">
-        <v>5579</v>
+        <v>5576</v>
       </c>
       <c r="G91" t="n">
         <v>377.5000000000001</v>
@@ -3111,10 +3111,10 @@
         <v>1398769</v>
       </c>
       <c r="E92" t="n">
-        <v>181907</v>
+        <v>181874</v>
       </c>
       <c r="F92" t="n">
-        <v>7237</v>
+        <v>7231</v>
       </c>
       <c r="G92" t="n">
         <v>369.02</v>
@@ -3140,10 +3140,10 @@
         <v>1438635</v>
       </c>
       <c r="E93" t="n">
-        <v>188575</v>
+        <v>188528</v>
       </c>
       <c r="F93" t="n">
-        <v>6667</v>
+        <v>6653</v>
       </c>
       <c r="G93" t="n">
         <v>366.9</v>
@@ -3169,10 +3169,10 @@
         <v>1481185</v>
       </c>
       <c r="E94" t="n">
-        <v>195358</v>
+        <v>195302</v>
       </c>
       <c r="F94" t="n">
-        <v>6782</v>
+        <v>6773</v>
       </c>
       <c r="G94" t="n">
         <v>366.65</v>
@@ -3198,10 +3198,10 @@
         <v>1515318</v>
       </c>
       <c r="E95" t="n">
-        <v>201782</v>
+        <v>201723</v>
       </c>
       <c r="F95" t="n">
-        <v>6424</v>
+        <v>6421</v>
       </c>
       <c r="G95" t="n">
         <v>352.94</v>
@@ -3227,10 +3227,10 @@
         <v>1555845</v>
       </c>
       <c r="E96" t="n">
-        <v>207982</v>
+        <v>207911</v>
       </c>
       <c r="F96" t="n">
-        <v>6199</v>
+        <v>6187</v>
       </c>
       <c r="G96" t="n">
         <v>334.17</v>
@@ -3256,10 +3256,10 @@
         <v>1598183</v>
       </c>
       <c r="E97" t="n">
-        <v>211837</v>
+        <v>211750</v>
       </c>
       <c r="F97" t="n">
-        <v>3854</v>
+        <v>3838</v>
       </c>
       <c r="G97" t="n">
         <v>331.74</v>
@@ -3285,10 +3285,10 @@
         <v>1614295</v>
       </c>
       <c r="E98" t="n">
-        <v>216374</v>
+        <v>216269</v>
       </c>
       <c r="F98" t="n">
-        <v>4537</v>
+        <v>4519</v>
       </c>
       <c r="G98" t="n">
         <v>325.55</v>
@@ -3314,10 +3314,10 @@
         <v>1647062</v>
       </c>
       <c r="E99" t="n">
-        <v>223149</v>
+        <v>223037</v>
       </c>
       <c r="F99" t="n">
-        <v>6773</v>
+        <v>6766</v>
       </c>
       <c r="G99" t="n">
         <v>321.46</v>
@@ -3343,10 +3343,10 @@
         <v>1673458</v>
       </c>
       <c r="E100" t="n">
-        <v>229799</v>
+        <v>229659</v>
       </c>
       <c r="F100" t="n">
-        <v>6649</v>
+        <v>6621</v>
       </c>
       <c r="G100" t="n">
         <v>315.73</v>
@@ -3372,10 +3372,10 @@
         <v>1710498</v>
       </c>
       <c r="E101" t="n">
-        <v>235653</v>
+        <v>235496</v>
       </c>
       <c r="F101" t="n">
-        <v>5852</v>
+        <v>5835</v>
       </c>
       <c r="G101" t="n">
         <v>311.37</v>
@@ -3401,10 +3401,10 @@
         <v>1753061</v>
       </c>
       <c r="E102" t="n">
-        <v>241362</v>
+        <v>241175</v>
       </c>
       <c r="F102" t="n">
-        <v>5708</v>
+        <v>5678</v>
       </c>
       <c r="G102" t="n">
         <v>307.84</v>
@@ -3430,10 +3430,10 @@
         <v>1785885</v>
       </c>
       <c r="E103" t="n">
-        <v>246699</v>
+        <v>246478</v>
       </c>
       <c r="F103" t="n">
-        <v>5335</v>
+        <v>5301</v>
       </c>
       <c r="G103" t="n">
         <v>303.74</v>
@@ -3459,10 +3459,10 @@
         <v>1827613</v>
       </c>
       <c r="E104" t="n">
-        <v>250300</v>
+        <v>250055</v>
       </c>
       <c r="F104" t="n">
-        <v>3601</v>
+        <v>3577</v>
       </c>
       <c r="G104" t="n">
         <v>299.91</v>
@@ -3488,10 +3488,10 @@
         <v>1862246</v>
       </c>
       <c r="E105" t="n">
-        <v>254424</v>
+        <v>254169</v>
       </c>
       <c r="F105" t="n">
-        <v>4124</v>
+        <v>4114</v>
       </c>
       <c r="G105" t="n">
         <v>299.06</v>
@@ -3517,10 +3517,10 @@
         <v>1887534</v>
       </c>
       <c r="E106" t="n">
-        <v>260286</v>
+        <v>260014</v>
       </c>
       <c r="F106" t="n">
-        <v>5862</v>
+        <v>5845</v>
       </c>
       <c r="G106" t="n">
         <v>293.9</v>
@@ -3546,10 +3546,10 @@
         <v>1912512</v>
       </c>
       <c r="E107" t="n">
-        <v>267162</v>
+        <v>266852</v>
       </c>
       <c r="F107" t="n">
-        <v>6875</v>
+        <v>6837</v>
       </c>
       <c r="G107" t="n">
         <v>289.64</v>
@@ -3575,10 +3575,10 @@
         <v>1956960</v>
       </c>
       <c r="E108" t="n">
-        <v>272804</v>
+        <v>272447</v>
       </c>
       <c r="F108" t="n">
-        <v>5642</v>
+        <v>5595</v>
       </c>
       <c r="G108" t="n">
         <v>287.6900000000001</v>
@@ -3604,10 +3604,10 @@
         <v>2001108</v>
       </c>
       <c r="E109" t="n">
-        <v>278335</v>
+        <v>277941</v>
       </c>
       <c r="F109" t="n">
-        <v>5531</v>
+        <v>5494</v>
       </c>
       <c r="G109" t="n">
         <v>285.17</v>
@@ -3633,10 +3633,10 @@
         <v>2028272</v>
       </c>
       <c r="E110" t="n">
-        <v>282667</v>
+        <v>282216</v>
       </c>
       <c r="F110" t="n">
-        <v>4332</v>
+        <v>4275</v>
       </c>
       <c r="G110" t="n">
         <v>281.56</v>
@@ -3662,10 +3662,10 @@
         <v>2060137</v>
       </c>
       <c r="E111" t="n">
-        <v>286732</v>
+        <v>286254</v>
       </c>
       <c r="F111" t="n">
-        <v>4065</v>
+        <v>4038</v>
       </c>
       <c r="G111" t="n">
         <v>262.06</v>
@@ -3691,10 +3691,10 @@
         <v>2086753</v>
       </c>
       <c r="E112" t="n">
-        <v>290253</v>
+        <v>289759</v>
       </c>
       <c r="F112" t="n">
-        <v>3521</v>
+        <v>3505</v>
       </c>
       <c r="G112" t="n">
         <v>260.5599999999999</v>
@@ -3720,10 +3720,10 @@
         <v>2097154</v>
       </c>
       <c r="E113" t="n">
-        <v>295825</v>
+        <v>295267</v>
       </c>
       <c r="F113" t="n">
-        <v>5572</v>
+        <v>5508</v>
       </c>
       <c r="G113" t="n">
         <v>258.27</v>
@@ -3749,10 +3749,10 @@
         <v>2118392</v>
       </c>
       <c r="E114" t="n">
-        <v>301088</v>
+        <v>300479</v>
       </c>
       <c r="F114" t="n">
-        <v>5263</v>
+        <v>5212</v>
       </c>
       <c r="G114" t="n">
         <v>253.0300000000001</v>
@@ -3778,10 +3778,10 @@
         <v>2162723</v>
       </c>
       <c r="E115" t="n">
-        <v>306406</v>
+        <v>305745</v>
       </c>
       <c r="F115" t="n">
-        <v>5318</v>
+        <v>5266</v>
       </c>
       <c r="G115" t="n">
         <v>252.23</v>
@@ -3807,10 +3807,10 @@
         <v>2199591</v>
       </c>
       <c r="E116" t="n">
-        <v>311467</v>
+        <v>310750</v>
       </c>
       <c r="F116" t="n">
-        <v>5057</v>
+        <v>5001</v>
       </c>
       <c r="G116" t="n">
         <v>249.03</v>
@@ -3836,10 +3836,10 @@
         <v>2235331</v>
       </c>
       <c r="E117" t="n">
-        <v>315871</v>
+        <v>315113</v>
       </c>
       <c r="F117" t="n">
-        <v>4404</v>
+        <v>4363</v>
       </c>
       <c r="G117" t="n">
         <v>246.99</v>
@@ -3865,10 +3865,10 @@
         <v>2266167</v>
       </c>
       <c r="E118" t="n">
-        <v>319558</v>
+        <v>318730</v>
       </c>
       <c r="F118" t="n">
-        <v>3686</v>
+        <v>3616</v>
       </c>
       <c r="G118" t="n">
         <v>246.08</v>
@@ -3894,10 +3894,10 @@
         <v>2301530</v>
       </c>
       <c r="E119" t="n">
-        <v>323078</v>
+        <v>322240</v>
       </c>
       <c r="F119" t="n">
-        <v>3520</v>
+        <v>3510</v>
       </c>
       <c r="G119" t="n">
         <v>244.42</v>
@@ -3923,10 +3923,10 @@
         <v>2335473</v>
       </c>
       <c r="E120" t="n">
-        <v>327704</v>
+        <v>326793</v>
       </c>
       <c r="F120" t="n">
-        <v>4626</v>
+        <v>4553</v>
       </c>
       <c r="G120" t="n">
         <v>242.3</v>
@@ -3952,10 +3952,10 @@
         <v>2366076</v>
       </c>
       <c r="E121" t="n">
-        <v>332377</v>
+        <v>331412</v>
       </c>
       <c r="F121" t="n">
-        <v>4672</v>
+        <v>4618</v>
       </c>
       <c r="G121" t="n">
         <v>240.6900000000001</v>
@@ -3981,10 +3981,10 @@
         <v>2405277</v>
       </c>
       <c r="E122" t="n">
-        <v>337385</v>
+        <v>336366</v>
       </c>
       <c r="F122" t="n">
-        <v>5008</v>
+        <v>4954</v>
       </c>
       <c r="G122" t="n">
         <v>239.18</v>
@@ -4010,10 +4010,10 @@
         <v>2396641</v>
       </c>
       <c r="E123" t="n">
-        <v>342083</v>
+        <v>341021</v>
       </c>
       <c r="F123" t="n">
-        <v>4698</v>
+        <v>4655</v>
       </c>
       <c r="G123" t="n">
         <v>236.77</v>
@@ -4039,10 +4039,10 @@
         <v>2429879</v>
       </c>
       <c r="E124" t="n">
-        <v>346315</v>
+        <v>345201</v>
       </c>
       <c r="F124" t="n">
-        <v>4231</v>
+        <v>4179</v>
       </c>
       <c r="G124" t="n">
         <v>234.6</v>
@@ -4068,10 +4068,10 @@
         <v>2464724</v>
       </c>
       <c r="E125" t="n">
-        <v>349540</v>
+        <v>348371</v>
       </c>
       <c r="F125" t="n">
-        <v>3225</v>
+        <v>3170</v>
       </c>
       <c r="G125" t="n">
         <v>233.01</v>
@@ -4097,10 +4097,10 @@
         <v>2484794</v>
       </c>
       <c r="E126" t="n">
-        <v>352910</v>
+        <v>351723</v>
       </c>
       <c r="F126" t="n">
-        <v>3369</v>
+        <v>3351</v>
       </c>
       <c r="G126" t="n">
         <v>231.64</v>
@@ -4126,10 +4126,10 @@
         <v>2503632</v>
       </c>
       <c r="E127" t="n">
-        <v>356748</v>
+        <v>355549</v>
       </c>
       <c r="F127" t="n">
-        <v>3837</v>
+        <v>3825</v>
       </c>
       <c r="G127" t="n">
         <v>229.92</v>
@@ -4155,10 +4155,10 @@
         <v>2533368</v>
       </c>
       <c r="E128" t="n">
-        <v>362126</v>
+        <v>360918</v>
       </c>
       <c r="F128" t="n">
-        <v>5378</v>
+        <v>5369</v>
       </c>
       <c r="G128" t="n">
         <v>228.16</v>
@@ -4184,10 +4184,10 @@
         <v>2557507</v>
       </c>
       <c r="E129" t="n">
-        <v>366859</v>
+        <v>365582</v>
       </c>
       <c r="F129" t="n">
-        <v>4733</v>
+        <v>4664</v>
       </c>
       <c r="G129" t="n">
         <v>225.4</v>
@@ -4213,10 +4213,10 @@
         <v>2607522</v>
       </c>
       <c r="E130" t="n">
-        <v>371831</v>
+        <v>370451</v>
       </c>
       <c r="F130" t="n">
-        <v>4972</v>
+        <v>4869</v>
       </c>
       <c r="G130" t="n">
         <v>224.44</v>
@@ -4242,10 +4242,10 @@
         <v>2646832</v>
       </c>
       <c r="E131" t="n">
-        <v>376020</v>
+        <v>374563</v>
       </c>
       <c r="F131" t="n">
-        <v>4188</v>
+        <v>4111</v>
       </c>
       <c r="G131" t="n">
         <v>222.29</v>
@@ -4271,10 +4271,10 @@
         <v>2640208</v>
       </c>
       <c r="E132" t="n">
-        <v>379349</v>
+        <v>377850</v>
       </c>
       <c r="F132" t="n">
-        <v>3329</v>
+        <v>3287</v>
       </c>
       <c r="G132" t="n">
         <v>220.02</v>
@@ -4291,19 +4291,19 @@
         <v>43983</v>
       </c>
       <c r="B133" t="n">
-        <v>6348858</v>
+        <v>6348857</v>
       </c>
       <c r="C133" t="n">
-        <v>105810</v>
+        <v>105809</v>
       </c>
       <c r="D133" t="n">
         <v>2682959</v>
       </c>
       <c r="E133" t="n">
-        <v>382472</v>
+        <v>380956</v>
       </c>
       <c r="F133" t="n">
-        <v>3123</v>
+        <v>3106</v>
       </c>
       <c r="G133" t="n">
         <v>219.2700000000001</v>
@@ -4320,7 +4320,7 @@
         <v>43984</v>
       </c>
       <c r="B134" t="n">
-        <v>6465320</v>
+        <v>6465319</v>
       </c>
       <c r="C134" t="n">
         <v>116462</v>
@@ -4329,10 +4329,10 @@
         <v>2687276</v>
       </c>
       <c r="E134" t="n">
-        <v>387200</v>
+        <v>385597</v>
       </c>
       <c r="F134" t="n">
-        <v>4728</v>
+        <v>4641</v>
       </c>
       <c r="G134" t="n">
         <v>217.53</v>
@@ -4349,7 +4349,7 @@
         <v>43985</v>
       </c>
       <c r="B135" t="n">
-        <v>6586731</v>
+        <v>6586730</v>
       </c>
       <c r="C135" t="n">
         <v>121411</v>
@@ -4358,10 +4358,10 @@
         <v>2646850</v>
       </c>
       <c r="E135" t="n">
-        <v>392189</v>
+        <v>390476</v>
       </c>
       <c r="F135" t="n">
-        <v>4989</v>
+        <v>4879</v>
       </c>
       <c r="G135" t="n">
         <v>214.73</v>
@@ -4378,7 +4378,7 @@
         <v>43986</v>
       </c>
       <c r="B136" t="n">
-        <v>6718206</v>
+        <v>6718205</v>
       </c>
       <c r="C136" t="n">
         <v>131475</v>
@@ -4387,10 +4387,10 @@
         <v>2686990</v>
       </c>
       <c r="E136" t="n">
-        <v>397815</v>
+        <v>396065</v>
       </c>
       <c r="F136" t="n">
-        <v>5626</v>
+        <v>5589</v>
       </c>
       <c r="G136" t="n">
         <v>214.9</v>
@@ -4407,7 +4407,7 @@
         <v>43987</v>
       </c>
       <c r="B137" t="n">
-        <v>6849660</v>
+        <v>6849659</v>
       </c>
       <c r="C137" t="n">
         <v>131454</v>
@@ -4416,10 +4416,10 @@
         <v>2731777</v>
       </c>
       <c r="E137" t="n">
-        <v>402783</v>
+        <v>400929</v>
       </c>
       <c r="F137" t="n">
-        <v>4968</v>
+        <v>4864</v>
       </c>
       <c r="G137" t="n">
         <v>214.88</v>
@@ -4436,7 +4436,7 @@
         <v>43988</v>
       </c>
       <c r="B138" t="n">
-        <v>6979345</v>
+        <v>6979344</v>
       </c>
       <c r="C138" t="n">
         <v>129685</v>
@@ -4445,10 +4445,10 @@
         <v>2777944</v>
       </c>
       <c r="E138" t="n">
-        <v>407126</v>
+        <v>405219</v>
       </c>
       <c r="F138" t="n">
-        <v>4343</v>
+        <v>4290</v>
       </c>
       <c r="G138" t="n">
         <v>214.48</v>
@@ -4465,7 +4465,7 @@
         <v>43989</v>
       </c>
       <c r="B139" t="n">
-        <v>7094290</v>
+        <v>7094289</v>
       </c>
       <c r="C139" t="n">
         <v>114945</v>
@@ -4474,10 +4474,10 @@
         <v>2837980</v>
       </c>
       <c r="E139" t="n">
-        <v>410701</v>
+        <v>408778</v>
       </c>
       <c r="F139" t="n">
-        <v>3575</v>
+        <v>3559</v>
       </c>
       <c r="G139" t="n">
         <v>214.08</v>
@@ -4494,7 +4494,7 @@
         <v>43990</v>
       </c>
       <c r="B140" t="n">
-        <v>7202968</v>
+        <v>7202967</v>
       </c>
       <c r="C140" t="n">
         <v>108678</v>
@@ -4503,10 +4503,10 @@
         <v>2866129</v>
       </c>
       <c r="E140" t="n">
-        <v>413930</v>
+        <v>411999</v>
       </c>
       <c r="F140" t="n">
-        <v>3229</v>
+        <v>3221</v>
       </c>
       <c r="G140" t="n">
         <v>212.96</v>
@@ -4523,7 +4523,7 @@
         <v>43991</v>
       </c>
       <c r="B141" t="n">
-        <v>7325011</v>
+        <v>7325010</v>
       </c>
       <c r="C141" t="n">
         <v>122043</v>
@@ -4532,10 +4532,10 @@
         <v>2912917</v>
       </c>
       <c r="E141" t="n">
-        <v>418754</v>
+        <v>416725</v>
       </c>
       <c r="F141" t="n">
-        <v>4824</v>
+        <v>4726</v>
       </c>
       <c r="G141" t="n">
         <v>212.8700000000001</v>
@@ -4552,7 +4552,7 @@
         <v>43992</v>
       </c>
       <c r="B142" t="n">
-        <v>7461961</v>
+        <v>7461960</v>
       </c>
       <c r="C142" t="n">
         <v>136950</v>
@@ -4561,10 +4561,10 @@
         <v>2909438</v>
       </c>
       <c r="E142" t="n">
-        <v>423987</v>
+        <v>421872</v>
       </c>
       <c r="F142" t="n">
-        <v>5233</v>
+        <v>5147</v>
       </c>
       <c r="G142" t="n">
         <v>211.22</v>
@@ -4581,7 +4581,7 @@
         <v>43993</v>
       </c>
       <c r="B143" t="n">
-        <v>7601296</v>
+        <v>7601295</v>
       </c>
       <c r="C143" t="n">
         <v>139335</v>
@@ -4590,10 +4590,10 @@
         <v>2935000</v>
       </c>
       <c r="E143" t="n">
-        <v>429072</v>
+        <v>426888</v>
       </c>
       <c r="F143" t="n">
-        <v>5085</v>
+        <v>5016</v>
       </c>
       <c r="G143" t="n">
         <v>209.86</v>
@@ -4610,7 +4610,7 @@
         <v>43994</v>
       </c>
       <c r="B144" t="n">
-        <v>7744714</v>
+        <v>7744713</v>
       </c>
       <c r="C144" t="n">
         <v>143418</v>
@@ -4619,10 +4619,10 @@
         <v>2983599</v>
       </c>
       <c r="E144" t="n">
-        <v>433775</v>
+        <v>431522</v>
       </c>
       <c r="F144" t="n">
-        <v>4703</v>
+        <v>4634</v>
       </c>
       <c r="G144" t="n">
         <v>208.46</v>
@@ -4639,7 +4639,7 @@
         <v>43995</v>
       </c>
       <c r="B145" t="n">
-        <v>7880034</v>
+        <v>7880033</v>
       </c>
       <c r="C145" t="n">
         <v>135320</v>
@@ -4648,10 +4648,10 @@
         <v>3005394</v>
       </c>
       <c r="E145" t="n">
-        <v>438128</v>
+        <v>435798</v>
       </c>
       <c r="F145" t="n">
-        <v>4353</v>
+        <v>4276</v>
       </c>
       <c r="G145" t="n">
         <v>206.58</v>
@@ -4668,7 +4668,7 @@
         <v>43996</v>
       </c>
       <c r="B146" t="n">
-        <v>8004633</v>
+        <v>8004632</v>
       </c>
       <c r="C146" t="n">
         <v>124599</v>
@@ -4677,10 +4677,10 @@
         <v>3049900</v>
       </c>
       <c r="E146" t="n">
-        <v>441512</v>
+        <v>439179</v>
       </c>
       <c r="F146" t="n">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="G146" t="n">
         <v>205.86</v>
@@ -4697,7 +4697,7 @@
         <v>43997</v>
       </c>
       <c r="B147" t="n">
-        <v>8130797</v>
+        <v>8130796</v>
       </c>
       <c r="C147" t="n">
         <v>126164</v>
@@ -4706,10 +4706,10 @@
         <v>3079820</v>
       </c>
       <c r="E147" t="n">
-        <v>445008</v>
+        <v>442667</v>
       </c>
       <c r="F147" t="n">
-        <v>3496</v>
+        <v>3488</v>
       </c>
       <c r="G147" t="n">
         <v>204.98</v>
@@ -4726,7 +4726,7 @@
         <v>43998</v>
       </c>
       <c r="B148" t="n">
-        <v>8275018</v>
+        <v>8275017</v>
       </c>
       <c r="C148" t="n">
         <v>144221</v>
@@ -4735,10 +4735,10 @@
         <v>3108319</v>
       </c>
       <c r="E148" t="n">
-        <v>451666</v>
+        <v>449206</v>
       </c>
       <c r="F148" t="n">
-        <v>6658</v>
+        <v>6539</v>
       </c>
       <c r="G148" t="n">
         <v>205.22</v>
@@ -4755,7 +4755,7 @@
         <v>43999</v>
       </c>
       <c r="B149" t="n">
-        <v>8421579</v>
+        <v>8421578</v>
       </c>
       <c r="C149" t="n">
         <v>146561</v>
@@ -4764,10 +4764,10 @@
         <v>3137363</v>
       </c>
       <c r="E149" t="n">
-        <v>456972</v>
+        <v>454434</v>
       </c>
       <c r="F149" t="n">
-        <v>5306</v>
+        <v>5228</v>
       </c>
       <c r="G149" t="n">
         <v>204.8500000000001</v>
@@ -4784,7 +4784,7 @@
         <v>44000</v>
       </c>
       <c r="B150" t="n">
-        <v>8563388</v>
+        <v>8563387</v>
       </c>
       <c r="C150" t="n">
         <v>141809</v>
@@ -4793,10 +4793,10 @@
         <v>3171162</v>
       </c>
       <c r="E150" t="n">
-        <v>462224</v>
+        <v>459626</v>
       </c>
       <c r="F150" t="n">
-        <v>5252</v>
+        <v>5192</v>
       </c>
       <c r="G150" t="n">
         <v>204.83</v>
@@ -4813,7 +4813,7 @@
         <v>44001</v>
       </c>
       <c r="B151" t="n">
-        <v>8746104</v>
+        <v>8746103</v>
       </c>
       <c r="C151" t="n">
         <v>182716</v>
@@ -4822,10 +4822,10 @@
         <v>3236459</v>
       </c>
       <c r="E151" t="n">
-        <v>467436</v>
+        <v>464744</v>
       </c>
       <c r="F151" t="n">
-        <v>5212</v>
+        <v>5118</v>
       </c>
       <c r="G151" t="n">
         <v>203.77</v>
@@ -4842,7 +4842,7 @@
         <v>44002</v>
       </c>
       <c r="B152" t="n">
-        <v>8904200</v>
+        <v>8904199</v>
       </c>
       <c r="C152" t="n">
         <v>158096</v>
@@ -4851,10 +4851,10 @@
         <v>3273953</v>
       </c>
       <c r="E152" t="n">
-        <v>471999</v>
+        <v>469254</v>
       </c>
       <c r="F152" t="n">
-        <v>4563</v>
+        <v>4510</v>
       </c>
       <c r="G152" t="n">
         <v>203.12</v>
@@ -4871,7 +4871,7 @@
         <v>44003</v>
       </c>
       <c r="B153" t="n">
-        <v>9035418</v>
+        <v>9035417</v>
       </c>
       <c r="C153" t="n">
         <v>131218</v>
@@ -4880,10 +4880,10 @@
         <v>3298925</v>
       </c>
       <c r="E153" t="n">
-        <v>475444</v>
+        <v>472690</v>
       </c>
       <c r="F153" t="n">
-        <v>3445</v>
+        <v>3436</v>
       </c>
       <c r="G153" t="n">
         <v>201.99</v>
@@ -4900,7 +4900,7 @@
         <v>44004</v>
       </c>
       <c r="B154" t="n">
-        <v>9175704</v>
+        <v>9175703</v>
       </c>
       <c r="C154" t="n">
         <v>140286</v>
@@ -4909,10 +4909,10 @@
         <v>3350308</v>
       </c>
       <c r="E154" t="n">
-        <v>479348</v>
+        <v>476593</v>
       </c>
       <c r="F154" t="n">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="G154" t="n">
         <v>201.42</v>
@@ -4929,7 +4929,7 @@
         <v>44005</v>
       </c>
       <c r="B155" t="n">
-        <v>9340343</v>
+        <v>9340342</v>
       </c>
       <c r="C155" t="n">
         <v>164639</v>
@@ -4938,10 +4938,10 @@
         <v>3386964</v>
       </c>
       <c r="E155" t="n">
-        <v>484865</v>
+        <v>481919</v>
       </c>
       <c r="F155" t="n">
-        <v>5517</v>
+        <v>5326</v>
       </c>
       <c r="G155" t="n">
         <v>200.81</v>
@@ -4958,7 +4958,7 @@
         <v>44006</v>
       </c>
       <c r="B156" t="n">
-        <v>9514836</v>
+        <v>9514835</v>
       </c>
       <c r="C156" t="n">
         <v>174493</v>
@@ -4967,10 +4967,10 @@
         <v>3420433</v>
       </c>
       <c r="E156" t="n">
-        <v>490011</v>
+        <v>486998</v>
       </c>
       <c r="F156" t="n">
-        <v>5146</v>
+        <v>5079</v>
       </c>
       <c r="G156" t="n">
         <v>200</v>
@@ -4987,7 +4987,7 @@
         <v>44007</v>
       </c>
       <c r="B157" t="n">
-        <v>9696235</v>
+        <v>9696234</v>
       </c>
       <c r="C157" t="n">
         <v>181399</v>
@@ -4996,10 +4996,10 @@
         <v>3508315</v>
       </c>
       <c r="E157" t="n">
-        <v>495277</v>
+        <v>492217</v>
       </c>
       <c r="F157" t="n">
-        <v>5266</v>
+        <v>5219</v>
       </c>
       <c r="G157" t="n">
         <v>199.53</v>
@@ -5016,7 +5016,7 @@
         <v>44008</v>
       </c>
       <c r="B158" t="n">
-        <v>9891874</v>
+        <v>9891873</v>
       </c>
       <c r="C158" t="n">
         <v>195639</v>
@@ -5025,10 +5025,10 @@
         <v>3597576</v>
       </c>
       <c r="E158" t="n">
-        <v>500205</v>
+        <v>497039</v>
       </c>
       <c r="F158" t="n">
-        <v>4928</v>
+        <v>4822</v>
       </c>
       <c r="G158" t="n">
         <v>201.07</v>
@@ -5045,7 +5045,7 @@
         <v>44009</v>
       </c>
       <c r="B159" t="n">
-        <v>10070503</v>
+        <v>10070502</v>
       </c>
       <c r="C159" t="n">
         <v>178629</v>
@@ -5054,10 +5054,10 @@
         <v>3667943</v>
       </c>
       <c r="E159" t="n">
-        <v>504882</v>
+        <v>501656</v>
       </c>
       <c r="F159" t="n">
-        <v>4677</v>
+        <v>4617</v>
       </c>
       <c r="G159" t="n">
         <v>200.35</v>
@@ -5074,7 +5074,7 @@
         <v>44010</v>
       </c>
       <c r="B160" t="n">
-        <v>10235371</v>
+        <v>10235370</v>
       </c>
       <c r="C160" t="n">
         <v>164868</v>
@@ -5083,10 +5083,10 @@
         <v>3732131</v>
       </c>
       <c r="E160" t="n">
-        <v>508443</v>
+        <v>505212</v>
       </c>
       <c r="F160" t="n">
-        <v>3561</v>
+        <v>3556</v>
       </c>
       <c r="G160" t="n">
         <v>199.58</v>
@@ -5103,7 +5103,7 @@
         <v>44011</v>
       </c>
       <c r="B161" t="n">
-        <v>10397650</v>
+        <v>10397649</v>
       </c>
       <c r="C161" t="n">
         <v>162279</v>
@@ -5112,10 +5112,10 @@
         <v>3779380</v>
       </c>
       <c r="E161" t="n">
-        <v>511960</v>
+        <v>508725</v>
       </c>
       <c r="F161" t="n">
-        <v>3517</v>
+        <v>3513</v>
       </c>
       <c r="G161" t="n">
         <v>198.6600000000001</v>
@@ -5132,7 +5132,7 @@
         <v>44012</v>
       </c>
       <c r="B162" t="n">
-        <v>10573233</v>
+        <v>10573232</v>
       </c>
       <c r="C162" t="n">
         <v>175583</v>
@@ -5141,10 +5141,10 @@
         <v>3816824</v>
       </c>
       <c r="E162" t="n">
-        <v>517107</v>
+        <v>513768</v>
       </c>
       <c r="F162" t="n">
-        <v>5147</v>
+        <v>5043</v>
       </c>
       <c r="G162" t="n">
         <v>197.67</v>
@@ -5161,7 +5161,7 @@
         <v>44013</v>
       </c>
       <c r="B163" t="n">
-        <v>10772396</v>
+        <v>10772395</v>
       </c>
       <c r="C163" t="n">
         <v>199163</v>
@@ -5170,10 +5170,10 @@
         <v>3876851</v>
       </c>
       <c r="E163" t="n">
-        <v>522056</v>
+        <v>518640</v>
       </c>
       <c r="F163" t="n">
-        <v>4949</v>
+        <v>4872</v>
       </c>
       <c r="G163" t="n">
         <v>196.91</v>
@@ -5190,7 +5190,7 @@
         <v>44014</v>
       </c>
       <c r="B164" t="n">
-        <v>10982605</v>
+        <v>10982604</v>
       </c>
       <c r="C164" t="n">
         <v>210209</v>
@@ -5199,10 +5199,10 @@
         <v>3879857</v>
       </c>
       <c r="E164" t="n">
-        <v>527316</v>
+        <v>523851</v>
       </c>
       <c r="F164" t="n">
-        <v>5260</v>
+        <v>5211</v>
       </c>
       <c r="G164" t="n">
         <v>195.73</v>
@@ -5219,7 +5219,7 @@
         <v>44015</v>
       </c>
       <c r="B165" t="n">
-        <v>11197509</v>
+        <v>11197508</v>
       </c>
       <c r="C165" t="n">
         <v>214904</v>
@@ -5228,10 +5228,10 @@
         <v>3953284</v>
       </c>
       <c r="E165" t="n">
-        <v>532616</v>
+        <v>529063</v>
       </c>
       <c r="F165" t="n">
-        <v>5300</v>
+        <v>5212</v>
       </c>
       <c r="G165" t="n">
         <v>194.87</v>
@@ -5248,7 +5248,7 @@
         <v>44016</v>
       </c>
       <c r="B166" t="n">
-        <v>11393740</v>
+        <v>11393739</v>
       </c>
       <c r="C166" t="n">
         <v>196231</v>
@@ -5257,10 +5257,10 @@
         <v>4001771</v>
       </c>
       <c r="E166" t="n">
-        <v>537242</v>
+        <v>533657</v>
       </c>
       <c r="F166" t="n">
-        <v>4626</v>
+        <v>4594</v>
       </c>
       <c r="G166" t="n">
         <v>193.95</v>
@@ -5277,7 +5277,7 @@
         <v>44017</v>
       </c>
       <c r="B167" t="n">
-        <v>11572502</v>
+        <v>11572501</v>
       </c>
       <c r="C167" t="n">
         <v>178762</v>
@@ -5286,10 +5286,10 @@
         <v>4078057</v>
       </c>
       <c r="E167" t="n">
-        <v>540962</v>
+        <v>537374</v>
       </c>
       <c r="F167" t="n">
-        <v>3720</v>
+        <v>3717</v>
       </c>
       <c r="G167" t="n">
         <v>193.13</v>
@@ -5306,19 +5306,19 @@
         <v>44018</v>
       </c>
       <c r="B168" t="n">
-        <v>11744690</v>
+        <v>11744689</v>
       </c>
       <c r="C168" t="n">
         <v>172188</v>
       </c>
       <c r="D168" t="n">
-        <v>4139961</v>
+        <v>4139960</v>
       </c>
       <c r="E168" t="n">
-        <v>544632</v>
+        <v>541040</v>
       </c>
       <c r="F168" t="n">
-        <v>3670</v>
+        <v>3666</v>
       </c>
       <c r="G168" t="n">
         <v>192.8</v>
@@ -5335,19 +5335,19 @@
         <v>44019</v>
       </c>
       <c r="B169" t="n">
-        <v>11953826</v>
+        <v>11953825</v>
       </c>
       <c r="C169" t="n">
         <v>209136</v>
       </c>
       <c r="D169" t="n">
-        <v>4133970</v>
+        <v>4133968</v>
       </c>
       <c r="E169" t="n">
-        <v>550260</v>
+        <v>546567</v>
       </c>
       <c r="F169" t="n">
-        <v>5628</v>
+        <v>5527</v>
       </c>
       <c r="G169" t="n">
         <v>191.69</v>
@@ -5364,19 +5364,19 @@
         <v>44020</v>
       </c>
       <c r="B170" t="n">
-        <v>12168311</v>
+        <v>12168310</v>
       </c>
       <c r="C170" t="n">
         <v>214485</v>
       </c>
       <c r="D170" t="n">
-        <v>4162587</v>
+        <v>4162582</v>
       </c>
       <c r="E170" t="n">
-        <v>555931</v>
+        <v>552172</v>
       </c>
       <c r="F170" t="n">
-        <v>5671</v>
+        <v>5605</v>
       </c>
       <c r="G170" t="n">
         <v>190.14</v>
@@ -5393,19 +5393,19 @@
         <v>44021</v>
       </c>
       <c r="B171" t="n">
-        <v>12392866</v>
+        <v>12392865</v>
       </c>
       <c r="C171" t="n">
         <v>224555</v>
       </c>
       <c r="D171" t="n">
-        <v>4223700</v>
+        <v>4223689</v>
       </c>
       <c r="E171" t="n">
-        <v>561454</v>
+        <v>557648</v>
       </c>
       <c r="F171" t="n">
-        <v>5522</v>
+        <v>5475</v>
       </c>
       <c r="G171" t="n">
         <v>189.31</v>
@@ -5422,19 +5422,19 @@
         <v>44022</v>
       </c>
       <c r="B172" t="n">
-        <v>12631145</v>
+        <v>12631144</v>
       </c>
       <c r="C172" t="n">
         <v>238279</v>
       </c>
       <c r="D172" t="n">
-        <v>4306716</v>
+        <v>4306705</v>
       </c>
       <c r="E172" t="n">
-        <v>566991</v>
+        <v>563171</v>
       </c>
       <c r="F172" t="n">
-        <v>5536</v>
+        <v>5522</v>
       </c>
       <c r="G172" t="n">
         <v>188.65</v>
@@ -5451,22 +5451,22 @@
         <v>44023</v>
       </c>
       <c r="B173" t="n">
-        <v>12848532</v>
+        <v>12848531</v>
       </c>
       <c r="C173" t="n">
         <v>217387</v>
       </c>
       <c r="D173" t="n">
-        <v>4371389</v>
+        <v>4371375</v>
       </c>
       <c r="E173" t="n">
-        <v>572122</v>
+        <v>568174</v>
       </c>
       <c r="F173" t="n">
-        <v>5131</v>
+        <v>5003</v>
       </c>
       <c r="G173" t="n">
-        <v>187.89</v>
+        <v>187.9</v>
       </c>
       <c r="H173" t="n">
         <v>70503</v>
@@ -5480,22 +5480,22 @@
         <v>44024</v>
       </c>
       <c r="B174" t="n">
-        <v>13047675</v>
+        <v>13047674</v>
       </c>
       <c r="C174" t="n">
         <v>199143</v>
       </c>
       <c r="D174" t="n">
-        <v>4459946</v>
+        <v>4459929</v>
       </c>
       <c r="E174" t="n">
-        <v>576376</v>
+        <v>572419</v>
       </c>
       <c r="F174" t="n">
-        <v>4254</v>
+        <v>4245</v>
       </c>
       <c r="G174" t="n">
-        <v>187.46</v>
+        <v>187.47</v>
       </c>
       <c r="H174" t="n">
         <v>36139</v>
@@ -5509,16 +5509,16 @@
         <v>44025</v>
       </c>
       <c r="B175" t="n">
-        <v>13244400</v>
+        <v>13244399</v>
       </c>
       <c r="C175" t="n">
         <v>196725</v>
       </c>
       <c r="D175" t="n">
-        <v>4537311</v>
+        <v>4537291</v>
       </c>
       <c r="E175" t="n">
-        <v>580267</v>
+        <v>576310</v>
       </c>
       <c r="F175" t="n">
         <v>3891</v>
@@ -5538,19 +5538,19 @@
         <v>44026</v>
       </c>
       <c r="B176" t="n">
-        <v>13464585</v>
+        <v>13464584</v>
       </c>
       <c r="C176" t="n">
         <v>220185</v>
       </c>
       <c r="D176" t="n">
-        <v>4600119</v>
+        <v>4600094</v>
       </c>
       <c r="E176" t="n">
-        <v>585859</v>
+        <v>581815</v>
       </c>
       <c r="F176" t="n">
-        <v>5592</v>
+        <v>5505</v>
       </c>
       <c r="G176" t="n">
         <v>186.23</v>
@@ -5567,19 +5567,19 @@
         <v>44027</v>
       </c>
       <c r="B177" t="n">
-        <v>13700212</v>
+        <v>13700211</v>
       </c>
       <c r="C177" t="n">
         <v>235627</v>
       </c>
       <c r="D177" t="n">
-        <v>4638120</v>
+        <v>4638093</v>
       </c>
       <c r="E177" t="n">
-        <v>591776</v>
+        <v>587675</v>
       </c>
       <c r="F177" t="n">
-        <v>5917</v>
+        <v>5860</v>
       </c>
       <c r="G177" t="n">
         <v>185.51</v>
@@ -5596,19 +5596,19 @@
         <v>44028</v>
       </c>
       <c r="B178" t="n">
-        <v>13949918</v>
+        <v>13949917</v>
       </c>
       <c r="C178" t="n">
         <v>249706</v>
       </c>
       <c r="D178" t="n">
-        <v>4638111</v>
+        <v>4638081</v>
       </c>
       <c r="E178" t="n">
-        <v>597655</v>
+        <v>593514</v>
       </c>
       <c r="F178" t="n">
-        <v>5879</v>
+        <v>5839</v>
       </c>
       <c r="G178" t="n">
         <v>184.59</v>
@@ -5625,19 +5625,19 @@
         <v>44029</v>
       </c>
       <c r="B179" t="n">
-        <v>14190892</v>
+        <v>14190891</v>
       </c>
       <c r="C179" t="n">
         <v>240974</v>
       </c>
       <c r="D179" t="n">
-        <v>4695066</v>
+        <v>4695032</v>
       </c>
       <c r="E179" t="n">
-        <v>603336</v>
+        <v>599112</v>
       </c>
       <c r="F179" t="n">
-        <v>5681</v>
+        <v>5598</v>
       </c>
       <c r="G179" t="n">
         <v>181.8</v>
@@ -5654,19 +5654,19 @@
         <v>44030</v>
       </c>
       <c r="B180" t="n">
-        <v>14417893</v>
+        <v>14417892</v>
       </c>
       <c r="C180" t="n">
         <v>227001</v>
       </c>
       <c r="D180" t="n">
-        <v>4762946</v>
+        <v>4762910</v>
       </c>
       <c r="E180" t="n">
-        <v>608461</v>
+        <v>604208</v>
       </c>
       <c r="F180" t="n">
-        <v>5125</v>
+        <v>5096</v>
       </c>
       <c r="G180" t="n">
         <v>181.15</v>
@@ -5683,19 +5683,19 @@
         <v>44031</v>
       </c>
       <c r="B181" t="n">
-        <v>14640659</v>
+        <v>14640658</v>
       </c>
       <c r="C181" t="n">
         <v>222766</v>
       </c>
       <c r="D181" t="n">
-        <v>4855180</v>
+        <v>4855142</v>
       </c>
       <c r="E181" t="n">
-        <v>612884</v>
+        <v>608617</v>
       </c>
       <c r="F181" t="n">
-        <v>4423</v>
+        <v>4409</v>
       </c>
       <c r="G181" t="n">
         <v>180.76</v>
@@ -5712,19 +5712,19 @@
         <v>44032</v>
       </c>
       <c r="B182" t="n">
-        <v>14846354</v>
+        <v>14846353</v>
       </c>
       <c r="C182" t="n">
         <v>205695</v>
       </c>
       <c r="D182" t="n">
-        <v>4882706</v>
+        <v>4882667</v>
       </c>
       <c r="E182" t="n">
-        <v>617007</v>
+        <v>612739</v>
       </c>
       <c r="F182" t="n">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="G182" t="n">
         <v>180.19</v>
@@ -5741,19 +5741,19 @@
         <v>44033</v>
       </c>
       <c r="B183" t="n">
-        <v>15086059</v>
+        <v>15086058</v>
       </c>
       <c r="C183" t="n">
         <v>239705</v>
       </c>
       <c r="D183" t="n">
-        <v>4910552</v>
+        <v>4910510</v>
       </c>
       <c r="E183" t="n">
-        <v>622845</v>
+        <v>618495</v>
       </c>
       <c r="F183" t="n">
-        <v>5838</v>
+        <v>5756</v>
       </c>
       <c r="G183" t="n">
         <v>179.46</v>
@@ -5770,19 +5770,19 @@
         <v>44034</v>
       </c>
       <c r="B184" t="n">
-        <v>15366446</v>
+        <v>15366445</v>
       </c>
       <c r="C184" t="n">
         <v>280387</v>
       </c>
       <c r="D184" t="n">
-        <v>4942030</v>
+        <v>4941985</v>
       </c>
       <c r="E184" t="n">
-        <v>630025</v>
+        <v>625616</v>
       </c>
       <c r="F184" t="n">
-        <v>7180</v>
+        <v>7121</v>
       </c>
       <c r="G184" t="n">
         <v>178.79</v>
@@ -5799,19 +5799,19 @@
         <v>44035</v>
       </c>
       <c r="B185" t="n">
-        <v>15643383</v>
+        <v>15643382</v>
       </c>
       <c r="C185" t="n">
         <v>276937</v>
       </c>
       <c r="D185" t="n">
-        <v>5023522</v>
+        <v>5023473</v>
       </c>
       <c r="E185" t="n">
-        <v>636393</v>
+        <v>631944</v>
       </c>
       <c r="F185" t="n">
-        <v>6368</v>
+        <v>6328</v>
       </c>
       <c r="G185" t="n">
         <v>178.4</v>
@@ -5828,19 +5828,19 @@
         <v>44036</v>
       </c>
       <c r="B186" t="n">
-        <v>15933031</v>
+        <v>15933030</v>
       </c>
       <c r="C186" t="n">
         <v>289648</v>
       </c>
       <c r="D186" t="n">
-        <v>5116896</v>
+        <v>5116843</v>
       </c>
       <c r="E186" t="n">
-        <v>642636</v>
+        <v>638100</v>
       </c>
       <c r="F186" t="n">
-        <v>6242</v>
+        <v>6155</v>
       </c>
       <c r="G186" t="n">
         <v>177.74</v>
@@ -5857,19 +5857,19 @@
         <v>44037</v>
       </c>
       <c r="B187" t="n">
-        <v>16194955</v>
+        <v>16194954</v>
       </c>
       <c r="C187" t="n">
         <v>261924</v>
       </c>
       <c r="D187" t="n">
-        <v>5179290</v>
+        <v>5179237</v>
       </c>
       <c r="E187" t="n">
-        <v>648377</v>
+        <v>643795</v>
       </c>
       <c r="F187" t="n">
-        <v>5741</v>
+        <v>5695</v>
       </c>
       <c r="G187" t="n">
         <v>177.27</v>
@@ -5886,19 +5886,19 @@
         <v>44038</v>
       </c>
       <c r="B188" t="n">
-        <v>16420326</v>
+        <v>16420325</v>
       </c>
       <c r="C188" t="n">
         <v>225371</v>
       </c>
       <c r="D188" t="n">
-        <v>5261746</v>
+        <v>5261693</v>
       </c>
       <c r="E188" t="n">
-        <v>652732</v>
+        <v>648144</v>
       </c>
       <c r="F188" t="n">
-        <v>4355</v>
+        <v>4349</v>
       </c>
       <c r="G188" t="n">
         <v>177.06</v>
@@ -5915,19 +5915,19 @@
         <v>44039</v>
       </c>
       <c r="B189" t="n">
-        <v>16638973</v>
+        <v>16638972</v>
       </c>
       <c r="C189" t="n">
         <v>218647</v>
       </c>
       <c r="D189" t="n">
-        <v>5289421</v>
+        <v>5289368</v>
       </c>
       <c r="E189" t="n">
-        <v>656966</v>
+        <v>652374</v>
       </c>
       <c r="F189" t="n">
-        <v>4234</v>
+        <v>4230</v>
       </c>
       <c r="G189" t="n">
         <v>176.4400000000001</v>
@@ -5944,19 +5944,19 @@
         <v>44040</v>
       </c>
       <c r="B190" t="n">
-        <v>16887405</v>
+        <v>16887404</v>
       </c>
       <c r="C190" t="n">
         <v>248432</v>
       </c>
       <c r="D190" t="n">
-        <v>5304400</v>
+        <v>5304347</v>
       </c>
       <c r="E190" t="n">
-        <v>662648</v>
+        <v>657958</v>
       </c>
       <c r="F190" t="n">
-        <v>5682</v>
+        <v>5584</v>
       </c>
       <c r="G190" t="n">
         <v>175.64</v>
@@ -5973,22 +5973,22 @@
         <v>44041</v>
       </c>
       <c r="B191" t="n">
-        <v>17176578</v>
+        <v>17176577</v>
       </c>
       <c r="C191" t="n">
         <v>289173</v>
       </c>
       <c r="D191" t="n">
-        <v>5345324</v>
+        <v>5345271</v>
       </c>
       <c r="E191" t="n">
-        <v>669685</v>
+        <v>664946</v>
       </c>
       <c r="F191" t="n">
-        <v>7037</v>
+        <v>6988</v>
       </c>
       <c r="G191" t="n">
-        <v>175.22</v>
+        <v>175.23</v>
       </c>
       <c r="H191" t="n">
         <v>119553</v>
@@ -6002,22 +6002,22 @@
         <v>44042</v>
       </c>
       <c r="B192" t="n">
-        <v>17463967</v>
+        <v>17463966</v>
       </c>
       <c r="C192" t="n">
         <v>287389</v>
       </c>
       <c r="D192" t="n">
-        <v>5380681</v>
+        <v>5380628</v>
       </c>
       <c r="E192" t="n">
-        <v>676142</v>
+        <v>671367</v>
       </c>
       <c r="F192" t="n">
-        <v>6457</v>
+        <v>6421</v>
       </c>
       <c r="G192" t="n">
-        <v>174.49</v>
+        <v>174.5</v>
       </c>
       <c r="H192" t="n">
         <v>105119</v>
@@ -6031,19 +6031,19 @@
         <v>44043</v>
       </c>
       <c r="B193" t="n">
-        <v>17753599</v>
+        <v>17755011</v>
       </c>
       <c r="C193" t="n">
-        <v>289632</v>
+        <v>291045</v>
       </c>
       <c r="D193" t="n">
-        <v>5433756</v>
+        <v>5435114</v>
       </c>
       <c r="E193" t="n">
-        <v>682611</v>
+        <v>677736</v>
       </c>
       <c r="F193" t="n">
-        <v>6468</v>
+        <v>6368</v>
       </c>
       <c r="G193" t="n">
         <v>173.96</v>
@@ -6060,22 +6060,22 @@
         <v>44044</v>
       </c>
       <c r="B194" t="n">
-        <v>18012372</v>
+        <v>18013866</v>
       </c>
       <c r="C194" t="n">
-        <v>258773</v>
+        <v>258855</v>
       </c>
       <c r="D194" t="n">
-        <v>5512551</v>
+        <v>5513991</v>
       </c>
       <c r="E194" t="n">
-        <v>688275</v>
+        <v>683340</v>
       </c>
       <c r="F194" t="n">
-        <v>5664</v>
+        <v>5604</v>
       </c>
       <c r="G194" t="n">
-        <v>173.51</v>
+        <v>173.52</v>
       </c>
       <c r="H194" t="n">
         <v>72939</v>
@@ -6089,19 +6089,19 @@
         <v>44045</v>
       </c>
       <c r="B195" t="n">
-        <v>18237066</v>
+        <v>18238623</v>
       </c>
       <c r="C195" t="n">
-        <v>224694</v>
+        <v>224757</v>
       </c>
       <c r="D195" t="n">
-        <v>5577503</v>
+        <v>5579006</v>
       </c>
       <c r="E195" t="n">
-        <v>692758</v>
+        <v>687820</v>
       </c>
       <c r="F195" t="n">
-        <v>4483</v>
+        <v>4480</v>
       </c>
       <c r="G195" t="n">
         <v>173.28</v>
@@ -6118,19 +6118,19 @@
         <v>44046</v>
       </c>
       <c r="B196" t="n">
-        <v>18437092</v>
+        <v>18438715</v>
       </c>
       <c r="C196" t="n">
-        <v>200026</v>
+        <v>200092</v>
       </c>
       <c r="D196" t="n">
-        <v>5563483</v>
+        <v>5565028</v>
       </c>
       <c r="E196" t="n">
-        <v>697131</v>
+        <v>692210</v>
       </c>
       <c r="F196" t="n">
-        <v>4373</v>
+        <v>4390</v>
       </c>
       <c r="G196" t="n">
         <v>172.7799999999999</v>
@@ -6147,19 +6147,19 @@
         <v>44047</v>
       </c>
       <c r="B197" t="n">
-        <v>18693348</v>
+        <v>18695115</v>
       </c>
       <c r="C197" t="n">
-        <v>256256</v>
+        <v>256400</v>
       </c>
       <c r="D197" t="n">
-        <v>5573141</v>
+        <v>5574805</v>
       </c>
       <c r="E197" t="n">
-        <v>703431</v>
+        <v>698464</v>
       </c>
       <c r="F197" t="n">
-        <v>6300</v>
+        <v>6254</v>
       </c>
       <c r="G197" t="n">
         <v>172.22</v>
@@ -6176,19 +6176,19 @@
         <v>44048</v>
       </c>
       <c r="B198" t="n">
-        <v>18965033</v>
+        <v>18966800</v>
       </c>
       <c r="C198" t="n">
         <v>271685</v>
       </c>
       <c r="D198" t="n">
-        <v>5593193</v>
+        <v>5594833</v>
       </c>
       <c r="E198" t="n">
-        <v>710271</v>
+        <v>705278</v>
       </c>
       <c r="F198" t="n">
-        <v>6840</v>
+        <v>6814</v>
       </c>
       <c r="G198" t="n">
         <v>171.83</v>
@@ -6205,19 +6205,19 @@
         <v>44049</v>
       </c>
       <c r="B199" t="n">
-        <v>19248799</v>
+        <v>19250750</v>
       </c>
       <c r="C199" t="n">
-        <v>283766</v>
+        <v>283950</v>
       </c>
       <c r="D199" t="n">
-        <v>5670568</v>
+        <v>5672368</v>
       </c>
       <c r="E199" t="n">
-        <v>716723</v>
+        <v>711724</v>
       </c>
       <c r="F199" t="n">
-        <v>6452</v>
+        <v>6446</v>
       </c>
       <c r="G199" t="n">
         <v>171.4700000000001</v>
@@ -6234,19 +6234,19 @@
         <v>44050</v>
       </c>
       <c r="B200" t="n">
-        <v>19532147</v>
+        <v>19534265</v>
       </c>
       <c r="C200" t="n">
-        <v>283348</v>
+        <v>283515</v>
       </c>
       <c r="D200" t="n">
-        <v>5753945</v>
+        <v>5755887</v>
       </c>
       <c r="E200" t="n">
-        <v>723167</v>
+        <v>718108</v>
       </c>
       <c r="F200" t="n">
-        <v>6444</v>
+        <v>6384</v>
       </c>
       <c r="G200" t="n">
         <v>171.1</v>
@@ -6263,19 +6263,19 @@
         <v>44051</v>
       </c>
       <c r="B201" t="n">
-        <v>19796809</v>
+        <v>19803887</v>
       </c>
       <c r="C201" t="n">
-        <v>264662</v>
+        <v>269622</v>
       </c>
       <c r="D201" t="n">
-        <v>5834025</v>
+        <v>5838024</v>
       </c>
       <c r="E201" t="n">
-        <v>728791</v>
+        <v>723703</v>
       </c>
       <c r="F201" t="n">
-        <v>5624</v>
+        <v>5595</v>
       </c>
       <c r="G201" t="n">
         <v>170.76</v>
@@ -6292,28 +6292,115 @@
         <v>44052</v>
       </c>
       <c r="B202" t="n">
-        <v>20016296</v>
+        <v>20028408</v>
       </c>
       <c r="C202" t="n">
-        <v>219487</v>
+        <v>224521</v>
       </c>
       <c r="D202" t="n">
-        <v>5869877</v>
+        <v>5814141</v>
       </c>
       <c r="E202" t="n">
-        <v>733604</v>
+        <v>728538</v>
       </c>
       <c r="F202" t="n">
-        <v>4813</v>
+        <v>4835</v>
       </c>
       <c r="G202" t="n">
-        <v>170.59</v>
+        <v>169.15</v>
       </c>
       <c r="H202" t="n">
-        <v>93914</v>
+        <v>155781</v>
       </c>
       <c r="I202" t="n">
-        <v>164.74</v>
+        <v>163.3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44053</v>
+      </c>
+      <c r="B203" t="n">
+        <v>20244905</v>
+      </c>
+      <c r="C203" t="n">
+        <v>216497</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5799522</v>
+      </c>
+      <c r="E203" t="n">
+        <v>733109</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4571</v>
+      </c>
+      <c r="G203" t="n">
+        <v>168.68</v>
+      </c>
+      <c r="H203" t="n">
+        <v>114434</v>
+      </c>
+      <c r="I203" t="n">
+        <v>162.91</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44054</v>
+      </c>
+      <c r="B204" t="n">
+        <v>20511065</v>
+      </c>
+      <c r="C204" t="n">
+        <v>266160</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5795759</v>
+      </c>
+      <c r="E204" t="n">
+        <v>739574</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6465</v>
+      </c>
+      <c r="G204" t="n">
+        <v>168.27</v>
+      </c>
+      <c r="H204" t="n">
+        <v>160001</v>
+      </c>
+      <c r="I204" t="n">
+        <v>162.53</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="B205" t="n">
+        <v>20796661</v>
+      </c>
+      <c r="C205" t="n">
+        <v>285596</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5805899</v>
+      </c>
+      <c r="E205" t="n">
+        <v>746396</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6822</v>
+      </c>
+      <c r="G205" t="n">
+        <v>167.91</v>
+      </c>
+      <c r="H205" t="n">
+        <v>149462</v>
+      </c>
+      <c r="I205" t="n">
+        <v>162.24</v>
       </c>
     </row>
   </sheetData>
